--- a/biology/Zoologie/Demoiselle_de_Rodrigues/Demoiselle_de_Rodrigues.xlsx
+++ b/biology/Zoologie/Demoiselle_de_Rodrigues/Demoiselle_de_Rodrigues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pomacentrus rodriguesensis
 La demoiselle de Rodrigues (Pomacentrus rodriguesensis) est un poisson de la famille des pomacentridés endémique de l'île Rodrigues découvert en 1999.
@@ -512,7 +524,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La demoiselle de Rodrigues a été découverte en 1999 par un certain Daniel Pélicier durant une plongée à caractère scientifique dans la grande passe de Rodrigues. Après en avoir fait un dessin, il retourne à l'île Maurice et consulte les documents disponibles sans y retrouver le poisson croqué. Le suspectant d'être inconnu, il envoie un spécimen au JLB Smith Institute of Ichtyology d'Afrique du Sud à l'intention du Docteur Phil Heemstra. Celui-ci confirme ses prédictions.
 Daniel Pelicier choisit de nommer le nouveau taxon demoiselle de Rodrigues en signe de son attachement à l'île. L'existence de celui-ci n'est pas encore officiellement reconnue par les instances d'homologation.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La demoiselle de Rodrigues est entièrement bleue, sauf la zone pectorale. Elle sera l’emblème du futur parc marin de l'île.
 </t>
@@ -575,7 +591,9 @@
           <t>Informations complémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Faune endémique de Rodrigues.</t>
         </is>
